--- a/normativa/Anexos/L01T02C06/L01T02C06A06.xlsx
+++ b/normativa/Anexos/L01T02C06/L01T02C06A06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="30" windowWidth="11475" windowHeight="9165"/>
+    <workbookView xWindow="10152" yWindow="36" windowWidth="11472" windowHeight="9168"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 1" sheetId="1" r:id="rId1"/>
@@ -394,6 +394,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,18 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -744,12 +744,12 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V53" sqref="V53"/>
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,36 +774,36 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-    </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+    </row>
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -815,21 +815,21 @@
         <v>14</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
       <c r="W3" s="23"/>
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
@@ -844,21 +844,21 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
       <c r="W4" s="23"/>
       <c r="X4" s="23"/>
       <c r="Y4" s="23"/>
@@ -1030,89 +1030,89 @@
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="31" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="31" t="s">
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="31" t="s">
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="33"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="37"/>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="40"/>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="39"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="43"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1661,12 +1661,12 @@
       <c r="X35" s="14"/>
     </row>
     <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
@@ -1716,113 +1716,113 @@
       <c r="Y37" s="9"/>
     </row>
     <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
       <c r="Y38" s="28"/>
     </row>
     <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
       <c r="Y39" s="28"/>
     </row>
     <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
       <c r="Y40" s="28"/>
     </row>
     <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
       <c r="Y41" s="28"/>
     </row>
     <row r="42" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2028,7 +2028,7 @@
   <pageSetup scale="96" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA BANCOS Y ENTIDADES FINANCIERAS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título II
 Capítulo VI
